--- a/code/test/dataframes/Pandas110.xlsx
+++ b/code/test/dataframes/Pandas110.xlsx
@@ -404,16 +404,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c s="1" t="s" r="B1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c s="1" t="s" r="C1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c s="1" t="s" r="D1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="1" t="s" r="E1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -421,16 +421,16 @@
         <v>0.20770374369793135</v>
       </c>
       <c t="n" r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c t="n" r="C2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c t="n" r="D2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c t="n" r="E2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -441,13 +441,13 @@
         <v>1</v>
       </c>
       <c t="n" r="C3">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c t="n" r="D3">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c t="n" r="E3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -455,16 +455,16 @@
         <v>0.22958325795693194</v>
       </c>
       <c t="n" r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c t="n" r="C4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c t="n" r="D4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c t="n" r="E4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -472,16 +472,16 @@
         <v>0.23595388281716784</v>
       </c>
       <c t="n" r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c t="n" r="C5">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c t="n" r="D5">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c t="n" r="E5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -489,16 +489,16 @@
         <v>0.23900549583280042</v>
       </c>
       <c t="n" r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c t="n" r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c t="n" r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c t="n" r="E6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -506,16 +506,16 @@
         <v>0.25782596929374557</v>
       </c>
       <c t="n" r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c t="n" r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c t="n" r="D7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c t="n" r="E7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -523,16 +523,16 @@
         <v>0.26149395318937885</v>
       </c>
       <c t="n" r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="n" r="C8">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c t="n" r="D8">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c t="n" r="E8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -540,16 +540,16 @@
         <v>0.2677630577168015</v>
       </c>
       <c t="n" r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c t="n" r="C9">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c t="n" r="D9">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c t="n" r="E9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -557,16 +557,16 @@
         <v>0.27111053855418665</v>
       </c>
       <c t="n" r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="n" r="C10">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c t="n" r="D10">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c t="n" r="E10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -574,16 +574,16 @@
         <v>0.2828562642969918</v>
       </c>
       <c t="n" r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c t="n" r="C11">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c t="n" r="D11">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c t="n" r="E11">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -591,16 +591,16 @@
         <v>0.28820882065657055</v>
       </c>
       <c t="n" r="B12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c t="n" r="C12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c t="n" r="D12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c t="n" r="E12">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -608,16 +608,16 @@
         <v>0.2903795908788052</v>
       </c>
       <c t="n" r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c t="n" r="C13">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c t="n" r="D13">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c t="n" r="E13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -625,16 +625,16 @@
         <v>0.2930580855564034</v>
       </c>
       <c t="n" r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c t="n" r="C14">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c t="n" r="D14">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c t="n" r="E14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -642,16 +642,16 @@
         <v>0.2954684364044847</v>
       </c>
       <c t="n" r="B15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c t="n" r="C15">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c t="n" r="D15">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c t="n" r="E15">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -659,16 +659,16 @@
         <v>0.29564158552362463</v>
       </c>
       <c t="n" r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c t="n" r="C16">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c t="n" r="D16">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c t="n" r="E16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -676,16 +676,16 @@
         <v>0.2961836658893989</v>
       </c>
       <c t="n" r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c t="n" r="C17">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c t="n" r="D17">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c t="n" r="E17">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -693,16 +693,16 @@
         <v>0.3037509328096385</v>
       </c>
       <c t="n" r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="n" r="C18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c t="n" r="D18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c t="n" r="E18">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -710,16 +710,16 @@
         <v>0.3131077961553223</v>
       </c>
       <c t="n" r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c t="n" r="C19">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c t="n" r="D19">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c t="n" r="E19">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -727,16 +727,16 @@
         <v>0.31314897173329953</v>
       </c>
       <c t="n" r="B20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c t="n" r="C20">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c t="n" r="D20">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c t="n" r="E20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -744,16 +744,16 @@
         <v>0.31556973231250135</v>
       </c>
       <c t="n" r="B21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c t="n" r="C21">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c t="n" r="D21">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c t="n" r="E21">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -764,13 +764,13 @@
         <v>1</v>
       </c>
       <c t="n" r="C22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c t="n" r="D22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c t="n" r="E22">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -781,13 +781,13 @@
         <v>1</v>
       </c>
       <c t="n" r="C23">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c t="n" r="D23">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c t="n" r="E23">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -798,13 +798,13 @@
         <v>2</v>
       </c>
       <c t="n" r="C24">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c t="n" r="D24">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c t="n" r="E24">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -812,16 +812,16 @@
         <v>0.32361912236798146</v>
       </c>
       <c t="n" r="B25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c t="n" r="C25">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c t="n" r="D25">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c t="n" r="E25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c t="n" r="C26">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c t="n" r="D26">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c t="n" r="E26">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -849,13 +849,13 @@
         <v>2</v>
       </c>
       <c t="n" r="C27">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c t="n" r="D27">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c t="n" r="E27">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -863,16 +863,16 @@
         <v>0.341999433453269</v>
       </c>
       <c t="n" r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c t="n" r="C28">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c t="n" r="D28">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c t="n" r="E28">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -883,13 +883,13 @@
         <v>2</v>
       </c>
       <c t="n" r="C29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c t="n" r="D29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c t="n" r="E29">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -897,16 +897,16 @@
         <v>0.3541963610034321</v>
       </c>
       <c t="n" r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c t="n" r="C30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c t="n" r="D30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c t="n" r="E30">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -914,16 +914,16 @@
         <v>0.35421921234110515</v>
       </c>
       <c t="n" r="B31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c t="n" r="C31">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c t="n" r="D31">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c t="n" r="E31">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -934,13 +934,13 @@
         <v>0</v>
       </c>
       <c t="n" r="C32">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c t="n" r="D32">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c t="n" r="E32">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -951,13 +951,13 @@
         <v>0</v>
       </c>
       <c t="n" r="C33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c t="n" r="D33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c t="n" r="E33">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -965,16 +965,16 @@
         <v>0.36565261303146035</v>
       </c>
       <c t="n" r="B34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c t="n" r="C34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c t="n" r="D34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c t="n" r="E34">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -982,16 +982,16 @@
         <v>0.3705663794645432</v>
       </c>
       <c t="n" r="B35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c t="n" r="C35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c t="n" r="D35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c t="n" r="E35">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -999,16 +999,16 @@
         <v>0.38000928163284864</v>
       </c>
       <c t="n" r="B36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c t="n" r="C36">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c t="n" r="D36">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c t="n" r="E36">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1016,16 +1016,16 @@
         <v>0.3801541051657466</v>
       </c>
       <c t="n" r="B37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c t="n" r="C37">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c t="n" r="D37">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c t="n" r="E37">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
